--- a/documentation/Deployment of RAP.xlsx
+++ b/documentation/Deployment of RAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjo00577/git/RAP/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F6E99-BE25-3547-9AE9-0AFD4DC77B25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6101E2-49B7-1449-B5A0-226268FA960C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Event analyse'!$A$3:$L$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Event analyse'!$A$3:$L$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'User stories'!$A$2:$XEV$2</definedName>
     <definedName name="_Toc42003129" localSheetId="0">'User stories'!#REF!</definedName>
     <definedName name="_Toc42003140" localSheetId="0">'User stories'!#REF!</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="199">
   <si>
     <t>Decompositie</t>
   </si>
@@ -299,9 +299,6 @@
     <t>for sharing.</t>
   </si>
   <si>
-    <t>By using a feature branch he postpones the moment of merging while sharing progress with peers.</t>
-  </si>
-  <si>
     <t>in the repo Ampersandtarski/Prototype,</t>
   </si>
   <si>
@@ -329,12 +326,6 @@
     <t>on the server.</t>
   </si>
   <si>
-    <t>deploys</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
     <t>for deploying remotely under TLS (https).</t>
   </si>
   <si>
@@ -347,9 +338,6 @@
     <t>Enroll</t>
   </si>
   <si>
-    <t>in a local feature branch of the repo Ampersandtarski/Ampersand.</t>
-  </si>
-  <si>
     <t>from his local feature branch to the remote feature branch</t>
   </si>
   <si>
@@ -513,6 +501,157 @@
   </si>
   <si>
     <t>in Ampersandtarski/RAP</t>
+  </si>
+  <si>
+    <t>to submit the change for automated testing and to share his progress with the team.</t>
+  </si>
+  <si>
+    <t>to avoid interference with the ongoing development.</t>
+  </si>
+  <si>
+    <t>He does this in a local feature branch of the repo Ampersandtarski/Ampersand</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd </t>
+  </si>
+  <si>
+    <t>FirstTime</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>installs</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>to get ready for installing RAP.</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>~~~.bash
+   git clone https://github.com/AmpersandTarski/RAP.git RAP
+   cd RAP
+   git checkout development
+   ~~~</t>
+  </si>
+  <si>
+    <t>clones</t>
+  </si>
+  <si>
+    <t>to load the source code locally.</t>
+  </si>
+  <si>
+    <t>on ~/git/RAP (or choose a location)</t>
+  </si>
+  <si>
+    <t>`.env`</t>
+  </si>
+  <si>
+    <t>```.bash
+   docker network create proxy
+   ```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates </t>
+  </si>
+  <si>
+    <t>a proxy network</t>
+  </si>
+  <si>
+    <t>that is required in `docker-compose.yml`.</t>
+  </si>
+  <si>
+    <t>spins up</t>
+  </si>
+  <si>
+    <t>to make RAP work on localhost</t>
+  </si>
+  <si>
+    <t>navigates</t>
+  </si>
+  <si>
+    <t>in a browser on his laptop</t>
+  </si>
+  <si>
+    <t>to `localhost`</t>
+  </si>
+  <si>
+    <t>to see the RAP installation page</t>
+  </si>
+  <si>
+    <t>clicks</t>
+  </si>
+  <si>
+    <t>to create a database for RAP.</t>
+  </si>
+  <si>
+    <t>the `home` icon</t>
+  </si>
+  <si>
+    <t>to see the RAP landing page.</t>
+  </si>
+  <si>
+    <t>```
+   docker exec -it rap4 bash
+   sudo chmod 666 /var/run/docker.sock
+   exit
+   ```</t>
+  </si>
+  <si>
+    <t>sets permissions for</t>
+  </si>
+  <si>
+    <t>the docker socket</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>to prevent accidents when using RAP.</t>
+  </si>
+  <si>
+    <t>on a server</t>
+  </si>
+  <si>
+    <t>to the server URL, e.g. rap.cs.ou.nl</t>
+  </si>
+  <si>
+    <t>sets `DISABLE\_DB\_INSTALL` to `true` in file</t>
+  </si>
+  <si>
+    <t>to make RAP work on the server</t>
+  </si>
+  <si>
+    <t>the red `Reinstall application` button</t>
+  </si>
+  <si>
+    <t>to grant the rap4 container access to docker for running prototypes.</t>
+  </si>
+  <si>
+    <t>on ~/git/Prototype (or choose a location)</t>
+  </si>
+  <si>
+    <t>for downloading source code.</t>
+  </si>
+  <si>
+    <t>to load source code on the server.</t>
+  </si>
+  <si>
+    <t>Ampersand</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>on ~/git/Ampersand (or choose a location)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -785,6 +924,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1434,11 +1575,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6120429D-324C-7D4F-81C7-9E2C88F7DECA}">
-  <dimension ref="A2:Q187"/>
+  <dimension ref="A2:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1449,15 +1590,17 @@
     <col min="5" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.83203125" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" style="17" customWidth="1"/>
-    <col min="9" max="10" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="93.83203125" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" style="18" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>46</v>
       </c>
@@ -1496,14 +1639,17 @@
       <c r="N2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -1539,8 +1685,9 @@
       <c r="O3" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:18" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -1557,24 +1704,27 @@
         <v>58</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>84</v>
+        <v>153</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K4" t="str">
         <f>IF(ISBLANK(C4),"", """"&amp;A4&amp;""" [texlbl="""&amp;A4&amp;". "&amp;B4&amp;" "&amp;C4&amp;" "&amp;D4&amp;" "&amp;F4&amp;" "&amp;G4&amp;" "&amp;H4&amp;""",color="""&amp;_xlfn.XLOOKUP(J4,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"1" [texlbl="1. A developer changes the Ampersand compiler on his laptop in a local feature branch of the repo Ampersandtarski/Ampersand. By using a feature branch he postpones the moment of merging while sharing progress with peers.",color="black"]</v>
+        <v>"1" [texlbl="1. A developer changes the Ampersand compiler on his laptop. He does this in a local feature branch of the repo Ampersandtarski/Ampersand to avoid interference with the ongoing development.",color="black"]</v>
       </c>
       <c r="L4" s="17" t="str">
         <f>IF(OR(ISBLANK(A4),ISBLANK(I4)),"", """"&amp;I4&amp;""" -&gt; """&amp;A4&amp;"""")</f>
-        <v/>
+        <v>"70" -&gt; "1"</v>
       </c>
       <c r="M4" s="17" t="str">
         <f>IF(ISBLANK(A4),"",_xlfn.IFNA( _xlfn.XLOOKUP(A4,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -1585,7 +1735,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -1593,37 +1743,40 @@
         <v>57</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="I5" s="17">
+        <v>47</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="K5" t="str">
         <f>IF(ISBLANK(C5),"", """"&amp;A5&amp;""" [texlbl="""&amp;A5&amp;". "&amp;B5&amp;" "&amp;C5&amp;" "&amp;D5&amp;" "&amp;F5&amp;" "&amp;G5&amp;" "&amp;H5&amp;""",color="""&amp;_xlfn.XLOOKUP(J5,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"2" [texlbl="2. A developer copies the file .example.env on his laptop to .env to secure safe internal passwords",color="blue"]</v>
+        <v>"2" [texlbl="2. A developer copies the file .example.env on his laptop to .env to secure safe internal passwords",color="yellow"]</v>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" ref="L5:L6" si="0">IF(OR(ISBLANK(A5),ISBLANK(I5)),"", """"&amp;I5&amp;""" -&gt; """&amp;A5&amp;"""")</f>
-        <v/>
+        <v>"47" -&gt; "2"</v>
       </c>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -1631,30 +1784,30 @@
         <v>57</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(C6),"", """"&amp;A6&amp;""" [texlbl="""&amp;A6&amp;". "&amp;B6&amp;" "&amp;C6&amp;" "&amp;D6&amp;" "&amp;F6&amp;" "&amp;G6&amp;" "&amp;H6&amp;""",color="""&amp;_xlfn.XLOOKUP(J6,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"3" [texlbl="3. A developer edits the file .env on his laptop  to secure safe internal passwords",color="blue"]</v>
+        <v>"3" [texlbl="3. A developer edits the file .env on his laptop  to secure safe internal passwords",color="yellow"]</v>
       </c>
       <c r="L6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -1662,7 +1815,7 @@
       </c>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -1673,7 +1826,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>53</v>
@@ -1689,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(C7),"", """"&amp;A7&amp;""" [texlbl="""&amp;A7&amp;". "&amp;B7&amp;" "&amp;C7&amp;" "&amp;D7&amp;" "&amp;F7&amp;" "&amp;G7&amp;" "&amp;H7&amp;""",color="""&amp;_xlfn.XLOOKUP(J7,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -1707,8 +1860,11 @@
         <f>IF(ISBLANK(N7),"",_xlfn.XLOOKUP(N7,'User stories'!A:A,'User stories'!B:B))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="P7" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -1728,20 +1884,20 @@
         <v>78</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="I8" s="17">
         <v>1</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K8" t="str">
         <f>IF(ISBLANK(C8),"", """"&amp;A8&amp;""" [texlbl="""&amp;A8&amp;". "&amp;B8&amp;" "&amp;C8&amp;" "&amp;D8&amp;" "&amp;F8&amp;" "&amp;G8&amp;" "&amp;H8&amp;""",color="""&amp;_xlfn.XLOOKUP(J8,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"5" [texlbl="5. The developer pushes a change to Github from his local feature branch to the remote feature branch for sharing.",color="black"]</v>
+        <v>"5" [texlbl="5. The developer pushes a change to Github from his local feature branch to the remote feature branch to submit the change for automated testing and to share his progress with the team.",color="black"]</v>
       </c>
       <c r="L8" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1756,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -1774,16 +1930,16 @@
         <v>79</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="I9" s="17">
         <v>5</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K9" t="str">
         <f>IF(ISBLANK(C9),"", """"&amp;A9&amp;""" [texlbl="""&amp;A9&amp;". "&amp;B9&amp;" "&amp;C9&amp;" "&amp;D9&amp;" "&amp;F9&amp;" "&amp;G9&amp;" "&amp;H9&amp;""",color="""&amp;_xlfn.XLOOKUP(J9,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -1802,7 +1958,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -1828,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K10" t="str">
         <f>IF(ISBLANK(C10),"", """"&amp;A10&amp;""" [texlbl="""&amp;A10&amp;". "&amp;B10&amp;" "&amp;C10&amp;" "&amp;D10&amp;" "&amp;F10&amp;" "&amp;G10&amp;" "&amp;H10&amp;""",color="""&amp;_xlfn.XLOOKUP(J10,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -1847,7 +2003,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -1874,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K11" t="str">
         <f>IF(ISBLANK(C11),"", """"&amp;A11&amp;""" [texlbl="""&amp;A11&amp;". "&amp;B11&amp;" "&amp;C11&amp;" "&amp;D11&amp;" "&amp;F11&amp;" "&amp;G11&amp;" "&amp;H11&amp;""",color="""&amp;_xlfn.XLOOKUP(J11,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -1893,7 +2049,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -1913,11 +2069,13 @@
         <v>77</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="I12" s="17">
+        <v>68</v>
+      </c>
       <c r="J12" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K12" t="str">
         <f>IF(ISBLANK(C12),"", """"&amp;A12&amp;""" [texlbl="""&amp;A12&amp;". "&amp;B12&amp;" "&amp;C12&amp;" "&amp;D12&amp;" "&amp;F12&amp;" "&amp;G12&amp;" "&amp;H12&amp;""",color="""&amp;_xlfn.XLOOKUP(J12,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -1925,7 +2083,7 @@
       </c>
       <c r="L12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>"68" -&gt; "9"</v>
       </c>
       <c r="M12" s="17" t="str">
         <f>IF(ISBLANK(A12),"",_xlfn.IFNA( _xlfn.XLOOKUP(A12,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -1936,7 +2094,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -1956,7 +2114,7 @@
         <v>78</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>83</v>
@@ -1965,7 +2123,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" t="str">
         <f>IF(ISBLANK(C13),"", """"&amp;A13&amp;""" [texlbl="""&amp;A13&amp;". "&amp;B13&amp;" "&amp;C13&amp;" "&amp;D13&amp;" "&amp;F13&amp;" "&amp;G13&amp;" "&amp;H13&amp;""",color="""&amp;_xlfn.XLOOKUP(J13,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -1984,7 +2142,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -2002,16 +2160,16 @@
         <v>79</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="17">
         <v>10</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K14" t="str">
         <f>IF(ISBLANK(C14),"", """"&amp;A14&amp;""" [texlbl="""&amp;A14&amp;". "&amp;B14&amp;" "&amp;C14&amp;" "&amp;D14&amp;" "&amp;F14&amp;" "&amp;G14&amp;" "&amp;H14&amp;""",color="""&amp;_xlfn.XLOOKUP(J14,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -2030,7 +2188,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -2056,7 +2214,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K15" t="str">
         <f>IF(ISBLANK(C15),"", """"&amp;A15&amp;""" [texlbl="""&amp;A15&amp;". "&amp;B15&amp;" "&amp;C15&amp;" "&amp;D15&amp;" "&amp;F15&amp;" "&amp;G15&amp;" "&amp;H15&amp;""",color="""&amp;_xlfn.XLOOKUP(J15,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -2075,7 +2233,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -2092,14 +2250,14 @@
         <v>53</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16" s="17"/>
       <c r="I16" s="17">
         <v>34</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K16" t="str">
         <f>IF(ISBLANK(C16),"", """"&amp;A16&amp;""" [texlbl="""&amp;A16&amp;". "&amp;B16&amp;" "&amp;C16&amp;" "&amp;D16&amp;" "&amp;F16&amp;" "&amp;G16&amp;" "&amp;H16&amp;""",color="""&amp;_xlfn.XLOOKUP(J16,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -2161,9 +2319,11 @@
         <v>77</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="I18" s="17">
+        <v>47</v>
+      </c>
       <c r="J18" s="17" t="s">
         <v>66</v>
       </c>
@@ -2173,7 +2333,7 @@
       </c>
       <c r="L18" s="17" t="str">
         <f t="shared" ref="L18:L27" si="3">IF(OR(ISBLANK(A18),ISBLANK(I18)),"", """"&amp;I18&amp;""" -&gt; """&amp;A18&amp;"""")</f>
-        <v/>
+        <v>"47" -&gt; "14"</v>
       </c>
       <c r="M18" s="17" t="str">
         <f>IF(ISBLANK(A18),"",_xlfn.IFNA( _xlfn.XLOOKUP(A18,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2204,7 +2364,7 @@
         <v>78</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>83</v>
@@ -2250,10 +2410,10 @@
         <v>79</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I20" s="17">
         <v>15</v>
@@ -2344,7 +2504,7 @@
         <v>79</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="17">
         <v>36</v>
@@ -2392,7 +2552,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>53</v>
@@ -2402,7 +2562,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I25" s="17">
         <v>17</v>
@@ -2491,7 +2651,7 @@
         <v/>
       </c>
       <c r="L28" s="17" t="str">
-        <f t="shared" ref="L28:L29" si="5">IF(OR(ISBLANK(A28),ISBLANK(I28)),"", """"&amp;I28&amp;""" -&gt; """&amp;A28&amp;"""")</f>
+        <f t="shared" ref="L28:L30" si="5">IF(OR(ISBLANK(A28),ISBLANK(I28)),"", """"&amp;I28&amp;""" -&gt; """&amp;A28&amp;"""")</f>
         <v>"43" -&gt; "18"</v>
       </c>
       <c r="M28" s="17" t="str">
@@ -2543,7 +2703,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="I30" s="17">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" t="str">
@@ -2551,50 +2711,31 @@
         <v/>
       </c>
       <c r="L30" s="17" t="str">
-        <f t="shared" ref="L30" si="6">IF(OR(ISBLANK(A30),ISBLANK(I30)),"", """"&amp;I30&amp;""" -&gt; """&amp;A30&amp;"""")</f>
-        <v>"31" -&gt; "18"</v>
-      </c>
-      <c r="M30" s="17" t="str">
-        <f>IF(ISBLANK(A30),"",_xlfn.IFNA( _xlfn.XLOOKUP(A30,'User stories'!E:E,'User stories'!A:A), ""))</f>
-        <v/>
-      </c>
-      <c r="O30" s="17" t="str">
-        <f>IF(ISBLANK(N30),"",_xlfn.XLOOKUP(N30,'User stories'!A:A,'User stories'!B:B))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+        <f t="shared" si="5"/>
+        <v>"46" -&gt; "18"</v>
+      </c>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
-        <v>19</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>91</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="I31" s="17">
-        <v>17</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>66</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J31" s="17"/>
       <c r="K31" t="str">
         <f>IF(ISBLANK(C31),"", """"&amp;A31&amp;""" [texlbl="""&amp;A31&amp;". "&amp;B31&amp;" "&amp;C31&amp;" "&amp;D31&amp;" "&amp;F31&amp;" "&amp;G31&amp;" "&amp;H31&amp;""",color="""&amp;_xlfn.XLOOKUP(J31,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"19" [texlbl="19. The developer connects  to a server  for deploying remotely under TLS (https).",color="blue"]</v>
+        <v/>
       </c>
       <c r="L31" s="17" t="str">
-        <f t="shared" ref="L31:L61" si="7">IF(OR(ISBLANK(A31),ISBLANK(I31)),"", """"&amp;I31&amp;""" -&gt; """&amp;A31&amp;"""")</f>
-        <v>"17" -&gt; "19"</v>
+        <f t="shared" ref="L31" si="6">IF(OR(ISBLANK(A31),ISBLANK(I31)),"", """"&amp;I31&amp;""" -&gt; """&amp;A31&amp;"""")</f>
+        <v>"31" -&gt; "18"</v>
       </c>
       <c r="M31" s="17" t="str">
         <f>IF(ISBLANK(A31),"",_xlfn.IFNA( _xlfn.XLOOKUP(A31,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2605,69 +2746,81 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="42" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>53</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="17"/>
       <c r="I32" s="17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>66</v>
       </c>
       <c r="K32" t="str">
         <f>IF(ISBLANK(C32),"", """"&amp;A32&amp;""" [texlbl="""&amp;A32&amp;". "&amp;B32&amp;" "&amp;C32&amp;" "&amp;D32&amp;" "&amp;F32&amp;" "&amp;G32&amp;" "&amp;H32&amp;""",color="""&amp;_xlfn.XLOOKUP(J32,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
+        <v>"19" [texlbl="19. The developer connects  to a server  for deploying remotely under TLS (https).",color="blue"]</v>
+      </c>
+      <c r="L32" s="17" t="str">
+        <f t="shared" ref="L32:L61" si="7">IF(OR(ISBLANK(A32),ISBLANK(I32)),"", """"&amp;I32&amp;""" -&gt; """&amp;A32&amp;"""")</f>
+        <v>"17" -&gt; "19"</v>
+      </c>
+      <c r="M32" s="17" t="str">
+        <f>IF(ISBLANK(A32),"",_xlfn.IFNA( _xlfn.XLOOKUP(A32,'User stories'!E:E,'User stories'!A:A), ""))</f>
+        <v/>
+      </c>
+      <c r="O32" s="17" t="str">
+        <f>IF(ISBLANK(N32),"",_xlfn.XLOOKUP(N32,'User stories'!A:A,'User stories'!B:B))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="42" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
+        <v>20</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="I33" s="17">
+        <v>19</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(ISBLANK(C33),"", """"&amp;A33&amp;""" [texlbl="""&amp;A33&amp;". "&amp;B33&amp;" "&amp;C33&amp;" "&amp;D33&amp;" "&amp;F33&amp;" "&amp;G33&amp;" "&amp;H33&amp;""",color="""&amp;_xlfn.XLOOKUP(J33,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v>"20" [texlbl="20. The developer builds the image ampersandtarski/ampersand-rap:2020 on the server.  ",color="blue"]</v>
       </c>
-      <c r="L32" s="17" t="str">
+      <c r="L33" s="17" t="str">
         <f t="shared" si="7"/>
         <v>"19" -&gt; "20"</v>
-      </c>
-      <c r="M32" s="17" t="str">
-        <f>IF(ISBLANK(A32),"",_xlfn.IFNA( _xlfn.XLOOKUP(A32,'User stories'!E:E,'User stories'!A:A), ""))</f>
-        <v/>
-      </c>
-      <c r="O32" s="17" t="str">
-        <f>IF(ISBLANK(N32),"",_xlfn.XLOOKUP(N32,'User stories'!A:A,'User stories'!B:B))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="17">
-        <v>20</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="I33" s="17">
-        <v>44</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" t="str">
-        <f>IF(ISBLANK(C33),"", """"&amp;A33&amp;""" [texlbl="""&amp;A33&amp;". "&amp;B33&amp;" "&amp;C33&amp;" "&amp;D33&amp;" "&amp;F33&amp;" "&amp;G33&amp;" "&amp;H33&amp;""",color="""&amp;_xlfn.XLOOKUP(J33,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
-      </c>
-      <c r="L33" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>"44" -&gt; "20"</v>
       </c>
       <c r="M33" s="17" t="str">
         <f>IF(ISBLANK(A33),"",_xlfn.IFNA( _xlfn.XLOOKUP(A33,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2688,7 +2841,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="I34" s="17">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" t="str">
@@ -2697,7 +2850,7 @@
       </c>
       <c r="L34" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"26" -&gt; "20"</v>
+        <v>"44" -&gt; "20"</v>
       </c>
       <c r="M34" s="17" t="str">
         <f>IF(ISBLANK(A34),"",_xlfn.IFNA( _xlfn.XLOOKUP(A34,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2718,7 +2871,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="I35" s="17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" t="str">
@@ -2727,7 +2880,7 @@
       </c>
       <c r="L35" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"28" -&gt; "20"</v>
+        <v>"26" -&gt; "20"</v>
       </c>
       <c r="M35" s="17" t="str">
         <f>IF(ISBLANK(A35),"",_xlfn.IFNA( _xlfn.XLOOKUP(A35,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2748,7 +2901,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="I36" s="17">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" t="str">
@@ -2757,7 +2910,7 @@
       </c>
       <c r="L36" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"31" -&gt; "20"</v>
+        <v>"28" -&gt; "20"</v>
       </c>
       <c r="M36" s="17" t="str">
         <f>IF(ISBLANK(A36),"",_xlfn.IFNA( _xlfn.XLOOKUP(A36,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2770,75 +2923,63 @@
     </row>
     <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="17">
-        <v>21</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>93</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="I37" s="17">
-        <v>20</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>66</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J37" s="17"/>
       <c r="K37" t="str">
         <f>IF(ISBLANK(C37),"", """"&amp;A37&amp;""" [texlbl="""&amp;A37&amp;". "&amp;B37&amp;" "&amp;C37&amp;" "&amp;D37&amp;" "&amp;F37&amp;" "&amp;G37&amp;" "&amp;H37&amp;""",color="""&amp;_xlfn.XLOOKUP(J37,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"21" [texlbl="21. The developer deploys RAP on the server.  ",color="blue"]</v>
+        <v/>
       </c>
       <c r="L37" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"20" -&gt; "21"</v>
-      </c>
-      <c r="M37" s="17"/>
+        <v>"31" -&gt; "20"</v>
+      </c>
+      <c r="M37" s="17" t="str">
+        <f>IF(ISBLANK(A37),"",_xlfn.IFNA( _xlfn.XLOOKUP(A37,'User stories'!E:E,'User stories'!A:A), ""))</f>
+        <v/>
+      </c>
+      <c r="O37" s="17" t="str">
+        <f>IF(ISBLANK(N37),"",_xlfn.XLOOKUP(N37,'User stories'!A:A,'User stories'!B:B))</f>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="17">
-        <v>22</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>98</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="I38" s="17">
-        <v>18</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J38" s="17"/>
       <c r="K38" t="str">
         <f>IF(ISBLANK(C38),"", """"&amp;A38&amp;""" [texlbl="""&amp;A38&amp;". "&amp;B38&amp;" "&amp;C38&amp;" "&amp;D38&amp;" "&amp;F38&amp;" "&amp;G38&amp;" "&amp;H38&amp;""",color="""&amp;_xlfn.XLOOKUP(J38,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"22" [texlbl="22. The developer deploys RAP on his laptop.  ",color="blue"]</v>
+        <v/>
       </c>
       <c r="L38" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>"18" -&gt; "22"</v>
-      </c>
-      <c r="M38" s="17"/>
+        <f t="shared" ref="L38" si="8">IF(OR(ISBLANK(A38),ISBLANK(I38)),"", """"&amp;I38&amp;""" -&gt; """&amp;A38&amp;"""")</f>
+        <v>"59" -&gt; "20"</v>
+      </c>
+      <c r="M38" s="17" t="str">
+        <f>IF(ISBLANK(A38),"",_xlfn.IFNA( _xlfn.XLOOKUP(A38,'User stories'!E:E,'User stories'!A:A), ""))</f>
+        <v/>
+      </c>
+      <c r="O38" s="17" t="str">
+        <f>IF(ISBLANK(N38),"",_xlfn.XLOOKUP(N38,'User stories'!A:A,'User stories'!B:B))</f>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="17">
@@ -2851,7 +2992,7 @@
         <v>65</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>58</v>
@@ -2860,11 +3001,13 @@
         <v>77</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I39" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="I39" s="17">
+        <v>47</v>
+      </c>
       <c r="J39" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K39" t="str">
         <f>IF(ISBLANK(C39),"", """"&amp;A39&amp;""" [texlbl="""&amp;A39&amp;". "&amp;B39&amp;" "&amp;C39&amp;" "&amp;D39&amp;" "&amp;F39&amp;" "&amp;G39&amp;" "&amp;H39&amp;""",color="""&amp;_xlfn.XLOOKUP(J39,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -2872,7 +3015,7 @@
       </c>
       <c r="L39" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"47" -&gt; "23"</v>
       </c>
       <c r="M39" s="17" t="str">
         <f>IF(ISBLANK(A39),"",_xlfn.IFNA( _xlfn.XLOOKUP(A39,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -2903,7 +3046,7 @@
         <v>78</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>83</v>
@@ -2972,7 +3115,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>53</v>
@@ -2985,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K42" t="str">
         <f>IF(ISBLANK(C42),"", """"&amp;A42&amp;""" [texlbl="""&amp;A42&amp;". "&amp;B42&amp;" "&amp;C42&amp;" "&amp;D42&amp;" "&amp;F42&amp;" "&amp;G42&amp;" "&amp;H42&amp;""",color="""&amp;_xlfn.XLOOKUP(J42,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3015,25 +3158,25 @@
         <v>71</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I43" s="17">
         <v>25</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K43" t="str">
         <f>IF(ISBLANK(C43),"", """"&amp;A43&amp;""" [texlbl="""&amp;A43&amp;". "&amp;B43&amp;" "&amp;C43&amp;" "&amp;D43&amp;" "&amp;F43&amp;" "&amp;G43&amp;" "&amp;H43&amp;""",color="""&amp;_xlfn.XLOOKUP(J43,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3060,34 +3203,36 @@
         <v>57</v>
       </c>
       <c r="C44" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="17">
+        <v>60</v>
+      </c>
       <c r="J44" s="17" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="K44" t="str">
         <f>IF(ISBLANK(C44),"", """"&amp;A44&amp;""" [texlbl="""&amp;A44&amp;". "&amp;B44&amp;" "&amp;C44&amp;" "&amp;D44&amp;" "&amp;F44&amp;" "&amp;G44&amp;" "&amp;H44&amp;""",color="""&amp;_xlfn.XLOOKUP(J44,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"27" [texlbl="27. A developer copies the file .example.env on the server to .env to secure safe internal passwords",color="blue"]</v>
+        <v>"27" [texlbl="27. A developer copies the file .example.env on the server to .env to secure safe internal passwords",color="yellow"]</v>
       </c>
       <c r="L44" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"60" -&gt; "27"</v>
       </c>
       <c r="M44" s="17" t="str">
         <f>IF(ISBLANK(A44),"",_xlfn.IFNA( _xlfn.XLOOKUP(A44,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -3106,30 +3251,30 @@
         <v>57</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I45" s="17">
         <v>27</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="K45" t="str">
         <f>IF(ISBLANK(C45),"", """"&amp;A45&amp;""" [texlbl="""&amp;A45&amp;". "&amp;B45&amp;" "&amp;C45&amp;" "&amp;D45&amp;" "&amp;F45&amp;" "&amp;G45&amp;" "&amp;H45&amp;""",color="""&amp;_xlfn.XLOOKUP(J45,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"28" [texlbl="28. A developer edits the file .env on the server  to secure safe internal passwords",color="blue"]</v>
+        <v>"28" [texlbl="28. A developer edits the file .env on the server  to secure safe internal passwords",color="yellow"]</v>
       </c>
       <c r="L45" s="17" t="str">
         <f t="shared" si="7"/>
@@ -3155,7 +3300,7 @@
         <v>62</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>58</v>
@@ -3164,7 +3309,7 @@
         <v>77</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="17" t="s">
@@ -3198,7 +3343,7 @@
         <v>68</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>53</v>
@@ -3208,7 +3353,7 @@
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I47" s="17">
         <v>29</v>
@@ -3244,19 +3389,19 @@
         <v>71</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I48" s="17">
         <v>30</v>
@@ -3289,10 +3434,10 @@
         <v>59</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>54</v>
@@ -3301,16 +3446,16 @@
         <v>78</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I49" s="17">
         <v>40</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K49" t="str">
         <f>IF(ISBLANK(C49),"", """"&amp;A49&amp;""" [texlbl="""&amp;A49&amp;". "&amp;B49&amp;" "&amp;C49&amp;" "&amp;D49&amp;" "&amp;F49&amp;" "&amp;G49&amp;" "&amp;H49&amp;""",color="""&amp;_xlfn.XLOOKUP(J49,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3334,36 +3479,36 @@
         <v>33</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17" t="s">
         <v>79</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I50" s="17">
         <v>12</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K50" t="str">
         <f>IF(ISBLANK(C50),"", """"&amp;A50&amp;""" [texlbl="""&amp;A50&amp;". "&amp;B50&amp;" "&amp;C50&amp;" "&amp;D50&amp;" "&amp;F50&amp;" "&amp;G50&amp;" "&amp;H50&amp;""",color="""&amp;_xlfn.XLOOKUP(J50,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v>"33" [texlbl="33. The Ampersand core team approves the pull request on Github in Ampersandtarski/Ampersand to prevent accidents.",color="red"]</v>
+        <v>"33" [texlbl="33. The Ampersand core team approves the pull request on Github in Ampersandtarski/Prototype to prevent accidents.",color="red"]</v>
       </c>
       <c r="L50" s="17" t="str">
-        <f t="shared" ref="L50" si="8">IF(OR(ISBLANK(A50),ISBLANK(I50)),"", """"&amp;I50&amp;""" -&gt; """&amp;A50&amp;"""")</f>
+        <f t="shared" ref="L50" si="9">IF(OR(ISBLANK(A50),ISBLANK(I50)),"", """"&amp;I50&amp;""" -&gt; """&amp;A50&amp;"""")</f>
         <v>"12" -&gt; "33"</v>
       </c>
       <c r="M50" s="17"/>
@@ -3403,13 +3548,13 @@
         <v>34</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>54</v>
@@ -3418,16 +3563,16 @@
         <v>79</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I52" s="17">
         <v>32</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K52" t="str">
         <f>IF(ISBLANK(C52),"", """"&amp;A52&amp;""" [texlbl="""&amp;A52&amp;". "&amp;B52&amp;" "&amp;C52&amp;" "&amp;D52&amp;" "&amp;F52&amp;" "&amp;G52&amp;" "&amp;H52&amp;""",color="""&amp;_xlfn.XLOOKUP(J52,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3454,10 +3599,10 @@
         <v>59</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>54</v>
@@ -3466,10 +3611,10 @@
         <v>78</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I53" s="17">
         <v>44</v>
@@ -3499,23 +3644,23 @@
         <v>36</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17" t="s">
         <v>79</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I54" s="17">
         <v>35</v>
@@ -3578,7 +3723,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
@@ -3587,7 +3732,7 @@
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I56" s="17">
         <v>4</v>
@@ -3617,29 +3762,29 @@
         <v>39</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17" t="s">
         <v>79</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I57" s="17">
         <v>6</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K57" t="str">
         <f>IF(ISBLANK(C57),"", """"&amp;A57&amp;""" [texlbl="""&amp;A57&amp;". "&amp;B57&amp;" "&amp;C57&amp;" "&amp;D57&amp;" "&amp;F57&amp;" "&amp;G57&amp;" "&amp;H57&amp;""",color="""&amp;_xlfn.XLOOKUP(J57,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3663,10 +3808,10 @@
         <v>40</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>63</v>
@@ -3676,13 +3821,13 @@
         <v>79</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I58" s="17">
         <v>7</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K58" t="str">
         <f>IF(ISBLANK(C58),"", """"&amp;A58&amp;""" [texlbl="""&amp;A58&amp;". "&amp;B58&amp;" "&amp;C58&amp;" "&amp;D58&amp;" "&amp;F58&amp;" "&amp;G58&amp;" "&amp;H58&amp;""",color="""&amp;_xlfn.XLOOKUP(J58,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3706,10 +3851,10 @@
         <v>41</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>75</v>
@@ -3719,16 +3864,16 @@
         <v>79</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I59" s="17">
         <v>11</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K59" t="str">
         <f>IF(ISBLANK(C59),"", """"&amp;A59&amp;""" [texlbl="""&amp;A59&amp;". "&amp;B59&amp;" "&amp;C59&amp;" "&amp;D59&amp;" "&amp;F59&amp;" "&amp;G59&amp;" "&amp;H59&amp;""",color="""&amp;_xlfn.XLOOKUP(J59,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3752,26 +3897,26 @@
         <v>42</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F60" s="17"/>
       <c r="H60" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I60" s="17">
         <v>40</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K60" t="str">
         <f>IF(ISBLANK(C60),"", """"&amp;A60&amp;""" [texlbl="""&amp;A60&amp;". "&amp;B60&amp;" "&amp;C60&amp;" "&amp;D60&amp;" "&amp;F60&amp;" "&amp;G60&amp;" "&amp;H60&amp;""",color="""&amp;_xlfn.XLOOKUP(J60,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
@@ -3798,17 +3943,17 @@
         <v>66</v>
       </c>
       <c r="C61" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" t="s">
         <v>149</v>
-      </c>
-      <c r="D61" t="s">
-        <v>153</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F61" s="17"/>
       <c r="H61" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I61" s="17">
         <v>8</v>
@@ -3850,7 +3995,7 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H62" s="17" t="s">
         <v>83</v>
@@ -3859,14 +4004,14 @@
         <v>13</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K62" t="str">
         <f>IF(ISBLANK(C62),"", """"&amp;A62&amp;""" [texlbl="""&amp;A62&amp;". "&amp;B62&amp;" "&amp;C62&amp;" "&amp;D62&amp;" "&amp;F62&amp;" "&amp;G62&amp;" "&amp;H62&amp;""",color="""&amp;_xlfn.XLOOKUP(J62,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v>"44" [texlbl="44. Github pushes the image ampersandtarski/prototype-framework to Docker hub  for sharing.",color="red"]</v>
       </c>
       <c r="L62" s="17" t="str">
-        <f t="shared" ref="L62:L93" si="9">IF(OR(ISBLANK(A62),ISBLANK(I62)),"", """"&amp;I62&amp;""" -&gt; """&amp;A62&amp;"""")</f>
+        <f t="shared" ref="L62:L90" si="10">IF(OR(ISBLANK(A62),ISBLANK(I62)),"", """"&amp;I62&amp;""" -&gt; """&amp;A62&amp;"""")</f>
         <v>"13" -&gt; "44"</v>
       </c>
       <c r="M62" s="17" t="str">
@@ -3882,17 +4027,33 @@
       <c r="A63" s="17">
         <v>45</v>
       </c>
+      <c r="B63" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="J63" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K63" t="str">
         <f>IF(ISBLANK(C63),"", """"&amp;A63&amp;""" [texlbl="""&amp;A63&amp;". "&amp;B63&amp;" "&amp;C63&amp;" "&amp;D63&amp;" "&amp;F63&amp;" "&amp;G63&amp;" "&amp;H63&amp;""",color="""&amp;_xlfn.XLOOKUP(J63,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"45" [texlbl="45. A developer installs Git on his laptop  for downloading source code.",color="yellow"]</v>
       </c>
       <c r="L63" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M63" s="17" t="str">
@@ -3908,19 +4069,33 @@
       <c r="A64" s="17">
         <v>46</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="B64" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="G64" s="17"/>
+      <c r="H64" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="J64" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K64" t="str">
         <f>IF(ISBLANK(C64),"", """"&amp;A64&amp;""" [texlbl="""&amp;A64&amp;". "&amp;B64&amp;" "&amp;C64&amp;" "&amp;D64&amp;" "&amp;F64&amp;" "&amp;G64&amp;" "&amp;H64&amp;""",color="""&amp;_xlfn.XLOOKUP(J64,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"46" [texlbl="46. A developer installs Docker on his laptop  to get ready for installing RAP.",color="yellow"]</v>
       </c>
       <c r="L64" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M64" s="17" t="str">
@@ -3932,24 +4107,42 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A65" s="17">
         <v>47</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="D65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="F65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I65" s="17">
+        <v>45</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K65" t="str">
         <f>IF(ISBLANK(C65),"", """"&amp;A65&amp;""" [texlbl="""&amp;A65&amp;". "&amp;B65&amp;" "&amp;C65&amp;" "&amp;D65&amp;" "&amp;F65&amp;" "&amp;G65&amp;" "&amp;H65&amp;""",color="""&amp;_xlfn.XLOOKUP(J65,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"47" [texlbl="47. The developer clones RAP on his laptop on ~/git/RAP (or choose a location) to load the source code locally.",color="yellow"]</v>
       </c>
       <c r="L65" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"45" -&gt; "47"</v>
       </c>
       <c r="M65" s="17" t="str">
         <f>IF(ISBLANK(A65),"",_xlfn.IFNA( _xlfn.XLOOKUP(A65,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -3959,25 +4152,44 @@
         <f>IF(ISBLANK(N65),"",_xlfn.XLOOKUP(N65,'User stories'!A:A,'User stories'!B:B))</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="P65" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A66" s="17">
-        <v>48</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="D66" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="G66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="H66" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I66" s="17">
+        <v>46</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K66" t="str">
         <f>IF(ISBLANK(C66),"", """"&amp;A66&amp;""" [texlbl="""&amp;A66&amp;". "&amp;B66&amp;" "&amp;C66&amp;" "&amp;D66&amp;" "&amp;F66&amp;" "&amp;G66&amp;" "&amp;H66&amp;""",color="""&amp;_xlfn.XLOOKUP(J66,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"51" [texlbl="51. The developer creates  a proxy network on his laptop  that is required in `docker-compose.yml`.",color="yellow"]</v>
       </c>
       <c r="L66" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"46" -&gt; "51"</v>
       </c>
       <c r="M66" s="17" t="str">
         <f>IF(ISBLANK(A66),"",_xlfn.IFNA( _xlfn.XLOOKUP(A66,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -3987,23 +4199,44 @@
         <f>IF(ISBLANK(N66),"",_xlfn.XLOOKUP(N66,'User stories'!A:A,'User stories'!B:B))</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="P66" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="17">
-        <v>49</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="D67" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="17" t="s">
+        <v>77</v>
+      </c>
       <c r="G67" s="17"/>
+      <c r="H67" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67" s="17">
+        <v>18</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="K67" t="str">
         <f>IF(ISBLANK(C67),"", """"&amp;A67&amp;""" [texlbl="""&amp;A67&amp;". "&amp;B67&amp;" "&amp;C67&amp;" "&amp;D67&amp;" "&amp;F67&amp;" "&amp;G67&amp;" "&amp;H67&amp;""",color="""&amp;_xlfn.XLOOKUP(J67,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"52" [texlbl="52. The developer spins up RAP on his laptop  to make RAP work on localhost",color="blue"]</v>
       </c>
       <c r="L67" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"18" -&gt; "52"</v>
       </c>
       <c r="M67" s="17" t="str">
         <f>IF(ISBLANK(A67),"",_xlfn.IFNA( _xlfn.XLOOKUP(A67,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4014,24 +4247,24 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
-        <v>50</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="D68" s="17"/>
+        <v>52</v>
+      </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="I68" s="17">
+        <v>51</v>
+      </c>
       <c r="J68" s="17"/>
       <c r="K68" t="str">
         <f>IF(ISBLANK(C68),"", """"&amp;A68&amp;""" [texlbl="""&amp;A68&amp;". "&amp;B68&amp;" "&amp;C68&amp;" "&amp;D68&amp;" "&amp;F68&amp;" "&amp;G68&amp;" "&amp;H68&amp;""",color="""&amp;_xlfn.XLOOKUP(J68,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L68" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"51" -&gt; "52"</v>
       </c>
       <c r="M68" s="17" t="str">
         <f>IF(ISBLANK(A68),"",_xlfn.IFNA( _xlfn.XLOOKUP(A68,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4042,24 +4275,39 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
-        <v>51</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="D69" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="F69" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I69" s="17">
+        <v>52</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="K69" t="str">
         <f>IF(ISBLANK(C69),"", """"&amp;A69&amp;""" [texlbl="""&amp;A69&amp;". "&amp;B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;" "&amp;F69&amp;" "&amp;G69&amp;" "&amp;H69&amp;""",color="""&amp;_xlfn.XLOOKUP(J69,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"53" [texlbl="53. The developer navigates  in a browser on his laptop to `localhost` to see the RAP installation page",color="blue"]</v>
       </c>
       <c r="L69" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"52" -&gt; "53"</v>
       </c>
       <c r="M69" s="17" t="str">
         <f>IF(ISBLANK(A69),"",_xlfn.IFNA( _xlfn.XLOOKUP(A69,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4070,24 +4318,38 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="17">
-        <v>52</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="D70" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="H70" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" s="17">
+        <v>53</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K70" t="str">
         <f>IF(ISBLANK(C70),"", """"&amp;A70&amp;""" [texlbl="""&amp;A70&amp;". "&amp;B70&amp;" "&amp;C70&amp;" "&amp;D70&amp;" "&amp;F70&amp;" "&amp;G70&amp;" "&amp;H70&amp;""",color="""&amp;_xlfn.XLOOKUP(J70,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"54" [texlbl="54. The developer clicks the red `Reinstall application` button   to create a database for RAP.",color="yellow"]</v>
       </c>
       <c r="L70" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"53" -&gt; "54"</v>
       </c>
       <c r="M70" s="17" t="str">
         <f>IF(ISBLANK(A70),"",_xlfn.IFNA( _xlfn.XLOOKUP(A70,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4098,22 +4360,38 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="17">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="H71" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" s="17">
+        <v>54</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="K71" t="str">
         <f>IF(ISBLANK(C71),"", """"&amp;A71&amp;""" [texlbl="""&amp;A71&amp;". "&amp;B71&amp;" "&amp;C71&amp;" "&amp;D71&amp;" "&amp;F71&amp;" "&amp;G71&amp;" "&amp;H71&amp;""",color="""&amp;_xlfn.XLOOKUP(J71,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"55" [texlbl="55. The developer clicks the `home` icon   to see the RAP landing page.",color="blue"]</v>
       </c>
       <c r="L71" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"54" -&gt; "55"</v>
       </c>
       <c r="M71" s="17" t="str">
         <f>IF(ISBLANK(A71),"",_xlfn.IFNA( _xlfn.XLOOKUP(A71,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4124,22 +4402,39 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="F72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="17">
+        <v>52</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K72" t="str">
         <f>IF(ISBLANK(C72),"", """"&amp;A72&amp;""" [texlbl="""&amp;A72&amp;". "&amp;B72&amp;" "&amp;C72&amp;" "&amp;D72&amp;" "&amp;F72&amp;" "&amp;G72&amp;" "&amp;H72&amp;""",color="""&amp;_xlfn.XLOOKUP(J72,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"56" [texlbl="56. The developer sets permissions for the docker socket on his laptop  to grant the rap4 container access to docker for running prototypes.",color="yellow"]</v>
       </c>
       <c r="L72" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"52" -&gt; "56"</v>
       </c>
       <c r="M72" s="17" t="str">
         <f>IF(ISBLANK(A72),"",_xlfn.IFNA( _xlfn.XLOOKUP(A72,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4149,25 +4444,42 @@
         <f>IF(ISBLANK(N72),"",_xlfn.XLOOKUP(N72,'User stories'!A:A,'User stories'!B:B))</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="P72" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A73" s="17">
-        <v>55</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I73" s="17">
+        <v>54</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K73" t="str">
         <f>IF(ISBLANK(C73),"", """"&amp;A73&amp;""" [texlbl="""&amp;A73&amp;". "&amp;B73&amp;" "&amp;C73&amp;" "&amp;D73&amp;" "&amp;F73&amp;" "&amp;G73&amp;" "&amp;H73&amp;""",color="""&amp;_xlfn.XLOOKUP(J73,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"57" [texlbl="57. The developer sets `DISABLE\_DB\_INSTALL` to `true` in file `.env`   to prevent accidents when using RAP.",color="yellow"]</v>
       </c>
       <c r="L73" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"54" -&gt; "57"</v>
       </c>
       <c r="M73" s="17" t="str">
         <f>IF(ISBLANK(A73),"",_xlfn.IFNA( _xlfn.XLOOKUP(A73,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4178,23 +4490,37 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="17">
-        <v>56</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="D74" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="G74" s="17"/>
+      <c r="H74" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="J74" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K74" t="str">
         <f>IF(ISBLANK(C74),"", """"&amp;A74&amp;""" [texlbl="""&amp;A74&amp;". "&amp;B74&amp;" "&amp;C74&amp;" "&amp;D74&amp;" "&amp;F74&amp;" "&amp;G74&amp;" "&amp;H74&amp;""",color="""&amp;_xlfn.XLOOKUP(J74,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"58" [texlbl="58. A developer installs Git on a server  for downloading source code.",color="yellow"]</v>
       </c>
       <c r="L74" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M74" s="17" t="str">
@@ -4206,18 +4532,37 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="17">
+        <v>59</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>57</v>
       </c>
+      <c r="C75" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K75" t="str">
         <f>IF(ISBLANK(C75),"", """"&amp;A75&amp;""" [texlbl="""&amp;A75&amp;". "&amp;B75&amp;" "&amp;C75&amp;" "&amp;D75&amp;" "&amp;F75&amp;" "&amp;G75&amp;" "&amp;H75&amp;""",color="""&amp;_xlfn.XLOOKUP(J75,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"59" [texlbl="59. A developer installs Docker on the server  to get ready for installing RAP.",color="yellow"]</v>
       </c>
       <c r="L75" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M75" s="17" t="str">
@@ -4229,17 +4574,42 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A76" s="17">
+        <v>60</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I76" s="17">
         <v>58</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="K76" t="str">
         <f>IF(ISBLANK(C76),"", """"&amp;A76&amp;""" [texlbl="""&amp;A76&amp;". "&amp;B76&amp;" "&amp;C76&amp;" "&amp;D76&amp;" "&amp;F76&amp;" "&amp;G76&amp;" "&amp;H76&amp;""",color="""&amp;_xlfn.XLOOKUP(J76,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"60" [texlbl="60. The developer clones RAP on the server on ~/git/RAP (or choose a location) to load source code on the server.",color="yellow"]</v>
       </c>
       <c r="L76" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"58" -&gt; "60"</v>
       </c>
       <c r="M76" s="17" t="str">
         <f>IF(ISBLANK(A76),"",_xlfn.IFNA( _xlfn.XLOOKUP(A76,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4250,17 +4620,40 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="17">
+        <v>61</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>59</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I77" s="17">
+        <v>59</v>
+      </c>
+      <c r="J77" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="K77" t="str">
         <f>IF(ISBLANK(C77),"", """"&amp;A77&amp;""" [texlbl="""&amp;A77&amp;". "&amp;B77&amp;" "&amp;C77&amp;" "&amp;D77&amp;" "&amp;F77&amp;" "&amp;G77&amp;" "&amp;H77&amp;""",color="""&amp;_xlfn.XLOOKUP(J77,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"61" [texlbl="61. The developer creates  a proxy network on the server  that is required in `docker-compose.yml`.",color="yellow"]</v>
       </c>
       <c r="L77" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"59" -&gt; "61"</v>
       </c>
       <c r="M77" s="17" t="str">
         <f>IF(ISBLANK(A77),"",_xlfn.IFNA( _xlfn.XLOOKUP(A77,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4271,19 +4664,40 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A78" s="17">
-        <v>60</v>
-      </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I78" s="17">
+        <v>20</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="K78" t="str">
         <f>IF(ISBLANK(C78),"", """"&amp;A78&amp;""" [texlbl="""&amp;A78&amp;". "&amp;B78&amp;" "&amp;C78&amp;" "&amp;D78&amp;" "&amp;F78&amp;" "&amp;G78&amp;" "&amp;H78&amp;""",color="""&amp;_xlfn.XLOOKUP(J78,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"62" [texlbl="62. The developer spins up RAP on the server  to make RAP work on the server",color="blue"]</v>
       </c>
       <c r="L78" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"20" -&gt; "62"</v>
       </c>
       <c r="M78" s="17" t="str">
         <f>IF(ISBLANK(A78),"",_xlfn.IFNA( _xlfn.XLOOKUP(A78,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4294,22 +4708,24 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
-      <c r="I79" s="17"/>
+      <c r="I79" s="17">
+        <v>61</v>
+      </c>
       <c r="J79" s="17"/>
       <c r="K79" t="str">
         <f>IF(ISBLANK(C79),"", """"&amp;A79&amp;""" [texlbl="""&amp;A79&amp;". "&amp;B79&amp;" "&amp;C79&amp;" "&amp;D79&amp;" "&amp;F79&amp;" "&amp;G79&amp;" "&amp;H79&amp;""",color="""&amp;_xlfn.XLOOKUP(J79,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L79" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"61" -&gt; "62"</v>
       </c>
       <c r="M79" s="17" t="str">
         <f>IF(ISBLANK(A79),"",_xlfn.IFNA( _xlfn.XLOOKUP(A79,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4320,22 +4736,39 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="17">
+        <v>63</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I80" s="17">
         <v>62</v>
       </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
+      <c r="J80" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="K80" t="str">
         <f>IF(ISBLANK(C80),"", """"&amp;A80&amp;""" [texlbl="""&amp;A80&amp;". "&amp;B80&amp;" "&amp;C80&amp;" "&amp;D80&amp;" "&amp;F80&amp;" "&amp;G80&amp;" "&amp;H80&amp;""",color="""&amp;_xlfn.XLOOKUP(J80,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"63" [texlbl="63. The developer navigates  in a browser on his laptop to the server URL, e.g. rap.cs.ou.nl to see the RAP installation page",color="blue"]</v>
       </c>
       <c r="L80" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"62" -&gt; "63"</v>
       </c>
       <c r="M80" s="17" t="str">
         <f>IF(ISBLANK(A80),"",_xlfn.IFNA( _xlfn.XLOOKUP(A80,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4346,17 +4779,38 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
+        <v>64</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="I81" s="17">
         <v>63</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="K81" t="str">
         <f>IF(ISBLANK(C81),"", """"&amp;A81&amp;""" [texlbl="""&amp;A81&amp;". "&amp;B81&amp;" "&amp;C81&amp;" "&amp;D81&amp;" "&amp;F81&amp;" "&amp;G81&amp;" "&amp;H81&amp;""",color="""&amp;_xlfn.XLOOKUP(J81,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"64" [texlbl="64. The developer clicks the red `Reinstall application` button   to create a database for RAP.",color="yellow"]</v>
       </c>
       <c r="L81" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"63" -&gt; "64"</v>
       </c>
       <c r="M81" s="17" t="str">
         <f>IF(ISBLANK(A81),"",_xlfn.IFNA( _xlfn.XLOOKUP(A81,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4369,15 +4823,36 @@
     </row>
     <row r="82" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
+        <v>65</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" s="17">
         <v>64</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="K82" t="str">
         <f>IF(ISBLANK(C82),"", """"&amp;A82&amp;""" [texlbl="""&amp;A82&amp;". "&amp;B82&amp;" "&amp;C82&amp;" "&amp;D82&amp;" "&amp;F82&amp;" "&amp;G82&amp;" "&amp;H82&amp;""",color="""&amp;_xlfn.XLOOKUP(J82,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"65" [texlbl="65. The developer clicks the `home` icon   to see the RAP landing page.",color="blue"]</v>
       </c>
       <c r="L82" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"64" -&gt; "65"</v>
       </c>
       <c r="M82" s="17" t="str">
         <f>IF(ISBLANK(A82),"",_xlfn.IFNA( _xlfn.XLOOKUP(A82,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4388,17 +4863,39 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" ht="42" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I83" s="17">
+        <v>62</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="K83" t="str">
         <f>IF(ISBLANK(C83),"", """"&amp;A83&amp;""" [texlbl="""&amp;A83&amp;". "&amp;B83&amp;" "&amp;C83&amp;" "&amp;D83&amp;" "&amp;F83&amp;" "&amp;G83&amp;" "&amp;H83&amp;""",color="""&amp;_xlfn.XLOOKUP(J83,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"66" [texlbl="66. The developer sets permissions for the docker socket on the server  to grant the rap4 container access to docker for running prototypes.",color="yellow"]</v>
       </c>
       <c r="L83" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"62" -&gt; "66"</v>
       </c>
       <c r="M83" s="17" t="str">
         <f>IF(ISBLANK(A83),"",_xlfn.IFNA( _xlfn.XLOOKUP(A83,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4409,19 +4906,41 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A84" s="17">
-        <v>66</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="D84" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I84" s="17">
+        <v>64</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K84" t="str">
         <f>IF(ISBLANK(C84),"", """"&amp;A84&amp;""" [texlbl="""&amp;A84&amp;". "&amp;B84&amp;" "&amp;C84&amp;" "&amp;D84&amp;" "&amp;F84&amp;" "&amp;G84&amp;" "&amp;H84&amp;""",color="""&amp;_xlfn.XLOOKUP(J84,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"67" [texlbl="67. The developer sets `DISABLE\_DB\_INSTALL` to `true` in file `.env` on the server  to prevent accidents when using RAP.",color="yellow"]</v>
       </c>
       <c r="L84" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"64" -&gt; "67"</v>
       </c>
       <c r="M84" s="17" t="str">
         <f>IF(ISBLANK(A84),"",_xlfn.IFNA( _xlfn.XLOOKUP(A84,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4432,19 +4951,44 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
-        <v>67</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="D85" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I85" s="17">
+        <v>45</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K85" t="str">
         <f>IF(ISBLANK(C85),"", """"&amp;A85&amp;""" [texlbl="""&amp;A85&amp;". "&amp;B85&amp;" "&amp;C85&amp;" "&amp;D85&amp;" "&amp;F85&amp;" "&amp;G85&amp;" "&amp;H85&amp;""",color="""&amp;_xlfn.XLOOKUP(J85,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"68" [texlbl="68. The developer clones Prototype on his laptop on ~/git/Prototype (or choose a location) to load the source code locally.",color="yellow"]</v>
       </c>
       <c r="L85" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"45" -&gt; "68"</v>
       </c>
       <c r="M85" s="17" t="str">
         <f>IF(ISBLANK(A85),"",_xlfn.IFNA( _xlfn.XLOOKUP(A85,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4455,19 +4999,44 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
-        <v>68</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="D86" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" s="17">
+        <v>45</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="K86" t="str">
         <f>IF(ISBLANK(C86),"", """"&amp;A86&amp;""" [texlbl="""&amp;A86&amp;". "&amp;B86&amp;" "&amp;C86&amp;" "&amp;D86&amp;" "&amp;F86&amp;" "&amp;G86&amp;" "&amp;H86&amp;""",color="""&amp;_xlfn.XLOOKUP(J86,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
+        <v>"70" [texlbl="70. The developer clones Ampersand on his laptop on ~/git/Ampersand (or choose a location) to load the source code locally.",color="yellow"]</v>
       </c>
       <c r="L86" s="17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"45" -&gt; "70"</v>
       </c>
       <c r="M86" s="17" t="str">
         <f>IF(ISBLANK(A86),"",_xlfn.IFNA( _xlfn.XLOOKUP(A86,'User stories'!E:E,'User stories'!A:A), ""))</f>
@@ -4480,7 +5049,7 @@
     </row>
     <row r="87" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B87" s="17"/>
       <c r="D87" s="17"/>
@@ -4489,7 +5058,7 @@
         <v/>
       </c>
       <c r="L87" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M87" s="17" t="str">
@@ -4503,7 +5072,7 @@
     </row>
     <row r="88" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="17">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B88" s="17"/>
       <c r="D88" s="17"/>
@@ -4512,7 +5081,7 @@
         <v/>
       </c>
       <c r="L88" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M88" s="17" t="str">
@@ -4526,7 +5095,7 @@
     </row>
     <row r="89" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B89" s="17"/>
       <c r="D89" s="17"/>
@@ -4535,7 +5104,7 @@
         <v/>
       </c>
       <c r="L89" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M89" s="17" t="str">
@@ -4549,7 +5118,7 @@
     </row>
     <row r="90" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B90" s="17"/>
       <c r="D90" s="17"/>
@@ -4558,7 +5127,7 @@
         <v/>
       </c>
       <c r="L90" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M90" s="17" t="str">
@@ -4572,7 +5141,7 @@
     </row>
     <row r="91" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B91" s="17"/>
       <c r="D91" s="17"/>
@@ -4581,7 +5150,7 @@
         <v/>
       </c>
       <c r="L91" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L91:L122" si="11">IF(OR(ISBLANK(A91),ISBLANK(I91)),"", """"&amp;I91&amp;""" -&gt; """&amp;A91&amp;"""")</f>
         <v/>
       </c>
       <c r="M91" s="17" t="str">
@@ -4595,7 +5164,7 @@
     </row>
     <row r="92" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="17">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B92" s="17"/>
       <c r="D92" s="17"/>
@@ -4604,7 +5173,7 @@
         <v/>
       </c>
       <c r="L92" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M92" s="17" t="str">
@@ -4618,7 +5187,7 @@
     </row>
     <row r="93" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B93" s="17"/>
       <c r="D93" s="17"/>
@@ -4627,7 +5196,7 @@
         <v/>
       </c>
       <c r="L93" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M93" s="17" t="str">
@@ -4641,7 +5210,7 @@
     </row>
     <row r="94" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B94" s="17"/>
       <c r="D94" s="17"/>
@@ -4650,7 +5219,7 @@
         <v/>
       </c>
       <c r="L94" s="17" t="str">
-        <f t="shared" ref="L94:L125" si="10">IF(OR(ISBLANK(A94),ISBLANK(I94)),"", """"&amp;I94&amp;""" -&gt; """&amp;A94&amp;"""")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M94" s="17" t="str">
@@ -4664,16 +5233,17 @@
     </row>
     <row r="95" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B95" s="17"/>
       <c r="D95" s="17"/>
+      <c r="G95" s="17"/>
       <c r="K95" t="str">
         <f>IF(ISBLANK(C95),"", """"&amp;A95&amp;""" [texlbl="""&amp;A95&amp;". "&amp;B95&amp;" "&amp;C95&amp;" "&amp;D95&amp;" "&amp;F95&amp;" "&amp;G95&amp;" "&amp;H95&amp;""",color="""&amp;_xlfn.XLOOKUP(J95,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L95" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M95" s="17" t="str">
@@ -4687,16 +5257,17 @@
     </row>
     <row r="96" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="17">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B96" s="17"/>
       <c r="D96" s="17"/>
+      <c r="G96" s="17"/>
       <c r="K96" t="str">
         <f>IF(ISBLANK(C96),"", """"&amp;A96&amp;""" [texlbl="""&amp;A96&amp;". "&amp;B96&amp;" "&amp;C96&amp;" "&amp;D96&amp;" "&amp;F96&amp;" "&amp;G96&amp;" "&amp;H96&amp;""",color="""&amp;_xlfn.XLOOKUP(J96,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L96" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M96" s="17" t="str">
@@ -4710,16 +5281,14 @@
     </row>
     <row r="97" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
-        <v>79</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="D97" s="17"/>
+        <v>81</v>
+      </c>
       <c r="K97" t="str">
         <f>IF(ISBLANK(C97),"", """"&amp;A97&amp;""" [texlbl="""&amp;A97&amp;". "&amp;B97&amp;" "&amp;C97&amp;" "&amp;D97&amp;" "&amp;F97&amp;" "&amp;G97&amp;" "&amp;H97&amp;""",color="""&amp;_xlfn.XLOOKUP(J97,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L97" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M97" s="17" t="str">
@@ -4733,17 +5302,14 @@
     </row>
     <row r="98" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
-        <v>80</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="G98" s="17"/>
+        <v>82</v>
+      </c>
       <c r="K98" t="str">
         <f>IF(ISBLANK(C98),"", """"&amp;A98&amp;""" [texlbl="""&amp;A98&amp;". "&amp;B98&amp;" "&amp;C98&amp;" "&amp;D98&amp;" "&amp;F98&amp;" "&amp;G98&amp;" "&amp;H98&amp;""",color="""&amp;_xlfn.XLOOKUP(J98,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L98" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M98" s="17" t="str">
@@ -4757,17 +5323,14 @@
     </row>
     <row r="99" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
-        <v>81</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="G99" s="17"/>
+        <v>83</v>
+      </c>
       <c r="K99" t="str">
         <f>IF(ISBLANK(C99),"", """"&amp;A99&amp;""" [texlbl="""&amp;A99&amp;". "&amp;B99&amp;" "&amp;C99&amp;" "&amp;D99&amp;" "&amp;F99&amp;" "&amp;G99&amp;" "&amp;H99&amp;""",color="""&amp;_xlfn.XLOOKUP(J99,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L99" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M99" s="17" t="str">
@@ -4781,14 +5344,14 @@
     </row>
     <row r="100" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="17">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K100" t="str">
         <f>IF(ISBLANK(C100),"", """"&amp;A100&amp;""" [texlbl="""&amp;A100&amp;". "&amp;B100&amp;" "&amp;C100&amp;" "&amp;D100&amp;" "&amp;F100&amp;" "&amp;G100&amp;" "&amp;H100&amp;""",color="""&amp;_xlfn.XLOOKUP(J100,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L100" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M100" s="17" t="str">
@@ -4802,14 +5365,14 @@
     </row>
     <row r="101" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K101" t="str">
         <f>IF(ISBLANK(C101),"", """"&amp;A101&amp;""" [texlbl="""&amp;A101&amp;". "&amp;B101&amp;" "&amp;C101&amp;" "&amp;D101&amp;" "&amp;F101&amp;" "&amp;G101&amp;" "&amp;H101&amp;""",color="""&amp;_xlfn.XLOOKUP(J101,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L101" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M101" s="17" t="str">
@@ -4823,14 +5386,14 @@
     </row>
     <row r="102" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K102" t="str">
         <f>IF(ISBLANK(C102),"", """"&amp;A102&amp;""" [texlbl="""&amp;A102&amp;". "&amp;B102&amp;" "&amp;C102&amp;" "&amp;D102&amp;" "&amp;F102&amp;" "&amp;G102&amp;" "&amp;H102&amp;""",color="""&amp;_xlfn.XLOOKUP(J102,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L102" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M102" s="17" t="str">
@@ -4844,14 +5407,14 @@
     </row>
     <row r="103" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K103" t="str">
         <f>IF(ISBLANK(C103),"", """"&amp;A103&amp;""" [texlbl="""&amp;A103&amp;". "&amp;B103&amp;" "&amp;C103&amp;" "&amp;D103&amp;" "&amp;F103&amp;" "&amp;G103&amp;" "&amp;H103&amp;""",color="""&amp;_xlfn.XLOOKUP(J103,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L103" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M103" s="17" t="str">
@@ -4865,14 +5428,14 @@
     </row>
     <row r="104" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="17">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K104" t="str">
         <f>IF(ISBLANK(C104),"", """"&amp;A104&amp;""" [texlbl="""&amp;A104&amp;". "&amp;B104&amp;" "&amp;C104&amp;" "&amp;D104&amp;" "&amp;F104&amp;" "&amp;G104&amp;" "&amp;H104&amp;""",color="""&amp;_xlfn.XLOOKUP(J104,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L104" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M104" s="17" t="str">
@@ -4886,14 +5449,14 @@
     </row>
     <row r="105" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K105" t="str">
         <f>IF(ISBLANK(C105),"", """"&amp;A105&amp;""" [texlbl="""&amp;A105&amp;". "&amp;B105&amp;" "&amp;C105&amp;" "&amp;D105&amp;" "&amp;F105&amp;" "&amp;G105&amp;" "&amp;H105&amp;""",color="""&amp;_xlfn.XLOOKUP(J105,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L105" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M105" s="17" t="str">
@@ -4907,14 +5470,14 @@
     </row>
     <row r="106" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K106" t="str">
         <f>IF(ISBLANK(C106),"", """"&amp;A106&amp;""" [texlbl="""&amp;A106&amp;". "&amp;B106&amp;" "&amp;C106&amp;" "&amp;D106&amp;" "&amp;F106&amp;" "&amp;G106&amp;" "&amp;H106&amp;""",color="""&amp;_xlfn.XLOOKUP(J106,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L106" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M106" s="17" t="str">
@@ -4928,14 +5491,14 @@
     </row>
     <row r="107" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K107" t="str">
         <f>IF(ISBLANK(C107),"", """"&amp;A107&amp;""" [texlbl="""&amp;A107&amp;". "&amp;B107&amp;" "&amp;C107&amp;" "&amp;D107&amp;" "&amp;F107&amp;" "&amp;G107&amp;" "&amp;H107&amp;""",color="""&amp;_xlfn.XLOOKUP(J107,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L107" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M107" s="17" t="str">
@@ -4949,14 +5512,15 @@
     </row>
     <row r="108" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="17">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G108" s="24"/>
       <c r="K108" t="str">
         <f>IF(ISBLANK(C108),"", """"&amp;A108&amp;""" [texlbl="""&amp;A108&amp;". "&amp;B108&amp;" "&amp;C108&amp;" "&amp;D108&amp;" "&amp;F108&amp;" "&amp;G108&amp;" "&amp;H108&amp;""",color="""&amp;_xlfn.XLOOKUP(J108,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L108" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M108" s="17" t="str">
@@ -4970,14 +5534,15 @@
     </row>
     <row r="109" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
-        <v>91</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G109" s="24"/>
       <c r="K109" t="str">
         <f>IF(ISBLANK(C109),"", """"&amp;A109&amp;""" [texlbl="""&amp;A109&amp;". "&amp;B109&amp;" "&amp;C109&amp;" "&amp;D109&amp;" "&amp;F109&amp;" "&amp;G109&amp;" "&amp;H109&amp;""",color="""&amp;_xlfn.XLOOKUP(J109,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L109" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M109" s="17" t="str">
@@ -4991,14 +5556,14 @@
     </row>
     <row r="110" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K110" t="str">
         <f>IF(ISBLANK(C110),"", """"&amp;A110&amp;""" [texlbl="""&amp;A110&amp;". "&amp;B110&amp;" "&amp;C110&amp;" "&amp;D110&amp;" "&amp;F110&amp;" "&amp;G110&amp;" "&amp;H110&amp;""",color="""&amp;_xlfn.XLOOKUP(J110,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L110" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M110" s="17" t="str">
@@ -5012,15 +5577,16 @@
     </row>
     <row r="111" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
-        <v>93</v>
-      </c>
-      <c r="G111" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
       <c r="K111" t="str">
         <f>IF(ISBLANK(C111),"", """"&amp;A111&amp;""" [texlbl="""&amp;A111&amp;". "&amp;B111&amp;" "&amp;C111&amp;" "&amp;D111&amp;" "&amp;F111&amp;" "&amp;G111&amp;" "&amp;H111&amp;""",color="""&amp;_xlfn.XLOOKUP(J111,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L111" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M111" s="17" t="str">
@@ -5034,15 +5600,16 @@
     </row>
     <row r="112" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="17">
-        <v>94</v>
-      </c>
-      <c r="G112" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
       <c r="K112" t="str">
         <f>IF(ISBLANK(C112),"", """"&amp;A112&amp;""" [texlbl="""&amp;A112&amp;". "&amp;B112&amp;" "&amp;C112&amp;" "&amp;D112&amp;" "&amp;F112&amp;" "&amp;G112&amp;" "&amp;H112&amp;""",color="""&amp;_xlfn.XLOOKUP(J112,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L112" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M112" s="17" t="str">
@@ -5056,14 +5623,17 @@
     </row>
     <row r="113" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
-        <v>95</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
       <c r="K113" t="str">
         <f>IF(ISBLANK(C113),"", """"&amp;A113&amp;""" [texlbl="""&amp;A113&amp;". "&amp;B113&amp;" "&amp;C113&amp;" "&amp;D113&amp;" "&amp;F113&amp;" "&amp;G113&amp;" "&amp;H113&amp;""",color="""&amp;_xlfn.XLOOKUP(J113,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L113" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M113" s="17" t="str">
@@ -5077,7 +5647,7 @@
     </row>
     <row r="114" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
@@ -5086,7 +5656,7 @@
         <v/>
       </c>
       <c r="L114" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M114" s="17" t="str">
@@ -5100,7 +5670,7 @@
     </row>
     <row r="115" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="17">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="17"/>
@@ -5109,7 +5679,7 @@
         <v/>
       </c>
       <c r="L115" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M115" s="17" t="str">
@@ -5123,9 +5693,8 @@
     </row>
     <row r="116" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="17">
-        <v>98</v>
-      </c>
-      <c r="C116" s="23"/>
+        <v>100</v>
+      </c>
       <c r="I116" s="17"/>
       <c r="J116" s="17"/>
       <c r="K116" t="str">
@@ -5133,7 +5702,7 @@
         <v/>
       </c>
       <c r="L116" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M116" s="17" t="str">
@@ -5147,7 +5716,7 @@
     </row>
     <row r="117" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="17">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -5156,7 +5725,7 @@
         <v/>
       </c>
       <c r="L117" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M117" s="17" t="str">
@@ -5170,7 +5739,7 @@
     </row>
     <row r="118" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="17">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
@@ -5179,7 +5748,7 @@
         <v/>
       </c>
       <c r="L118" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M118" s="17" t="str">
@@ -5193,7 +5762,7 @@
     </row>
     <row r="119" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="17">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -5202,7 +5771,7 @@
         <v/>
       </c>
       <c r="L119" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M119" s="17" t="str">
@@ -5216,16 +5785,14 @@
     </row>
     <row r="120" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="17">
-        <v>102</v>
-      </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
+        <v>104</v>
+      </c>
       <c r="K120" t="str">
         <f>IF(ISBLANK(C120),"", """"&amp;A120&amp;""" [texlbl="""&amp;A120&amp;". "&amp;B120&amp;" "&amp;C120&amp;" "&amp;D120&amp;" "&amp;F120&amp;" "&amp;G120&amp;" "&amp;H120&amp;""",color="""&amp;_xlfn.XLOOKUP(J120,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L120" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M120" s="17" t="str">
@@ -5239,16 +5806,14 @@
     </row>
     <row r="121" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="17">
-        <v>103</v>
-      </c>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
+        <v>105</v>
+      </c>
       <c r="K121" t="str">
         <f>IF(ISBLANK(C121),"", """"&amp;A121&amp;""" [texlbl="""&amp;A121&amp;". "&amp;B121&amp;" "&amp;C121&amp;" "&amp;D121&amp;" "&amp;F121&amp;" "&amp;G121&amp;" "&amp;H121&amp;""",color="""&amp;_xlfn.XLOOKUP(J121,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L121" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M121" s="17" t="str">
@@ -5262,7 +5827,7 @@
     </row>
     <row r="122" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="17">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -5271,7 +5836,7 @@
         <v/>
       </c>
       <c r="L122" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M122" s="17" t="str">
@@ -5285,14 +5850,16 @@
     </row>
     <row r="123" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="17">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
       <c r="K123" t="str">
         <f>IF(ISBLANK(C123),"", """"&amp;A123&amp;""" [texlbl="""&amp;A123&amp;". "&amp;B123&amp;" "&amp;C123&amp;" "&amp;D123&amp;" "&amp;F123&amp;" "&amp;G123&amp;" "&amp;H123&amp;""",color="""&amp;_xlfn.XLOOKUP(J123,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L123" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="L123:L154" si="12">IF(OR(ISBLANK(A123),ISBLANK(I123)),"", """"&amp;I123&amp;""" -&gt; """&amp;A123&amp;"""")</f>
         <v/>
       </c>
       <c r="M123" s="17" t="str">
@@ -5306,14 +5873,16 @@
     </row>
     <row r="124" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="17">
-        <v>106</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
       <c r="K124" t="str">
         <f>IF(ISBLANK(C124),"", """"&amp;A124&amp;""" [texlbl="""&amp;A124&amp;". "&amp;B124&amp;" "&amp;C124&amp;" "&amp;D124&amp;" "&amp;F124&amp;" "&amp;G124&amp;" "&amp;H124&amp;""",color="""&amp;_xlfn.XLOOKUP(J124,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L124" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M124" s="17" t="str">
@@ -5327,7 +5896,7 @@
     </row>
     <row r="125" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="17">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="17"/>
@@ -5336,7 +5905,7 @@
         <v/>
       </c>
       <c r="L125" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M125" s="17" t="str">
@@ -5350,7 +5919,7 @@
     </row>
     <row r="126" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="17">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="17"/>
@@ -5359,7 +5928,7 @@
         <v/>
       </c>
       <c r="L126" s="17" t="str">
-        <f t="shared" ref="L126:L157" si="11">IF(OR(ISBLANK(A126),ISBLANK(I126)),"", """"&amp;I126&amp;""" -&gt; """&amp;A126&amp;"""")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M126" s="17" t="str">
@@ -5373,7 +5942,7 @@
     </row>
     <row r="127" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="17">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="17"/>
@@ -5382,7 +5951,7 @@
         <v/>
       </c>
       <c r="L127" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M127" s="17" t="str">
@@ -5396,7 +5965,7 @@
     </row>
     <row r="128" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="17">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I128" s="17"/>
       <c r="J128" s="17"/>
@@ -5405,7 +5974,7 @@
         <v/>
       </c>
       <c r="L128" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M128" s="17" t="str">
@@ -5419,7 +5988,7 @@
     </row>
     <row r="129" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="17">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
@@ -5428,7 +5997,7 @@
         <v/>
       </c>
       <c r="L129" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M129" s="17" t="str">
@@ -5442,7 +6011,7 @@
     </row>
     <row r="130" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="17">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -5451,7 +6020,7 @@
         <v/>
       </c>
       <c r="L130" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M130" s="17" t="str">
@@ -5465,7 +6034,7 @@
     </row>
     <row r="131" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="17">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
@@ -5474,7 +6043,7 @@
         <v/>
       </c>
       <c r="L131" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M131" s="17" t="str">
@@ -5488,8 +6057,11 @@
     </row>
     <row r="132" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="17">
-        <v>114</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
       <c r="I132" s="17"/>
       <c r="J132" s="17"/>
       <c r="K132" t="str">
@@ -5497,7 +6069,7 @@
         <v/>
       </c>
       <c r="L132" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M132" s="17" t="str">
@@ -5511,7 +6083,7 @@
     </row>
     <row r="133" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="17">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="17"/>
@@ -5520,7 +6092,7 @@
         <v/>
       </c>
       <c r="L133" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M133" s="17" t="str">
@@ -5534,7 +6106,7 @@
     </row>
     <row r="134" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="17">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="17"/>
@@ -5543,7 +6115,7 @@
         <v/>
       </c>
       <c r="L134" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M134" s="17" t="str">
@@ -5557,7 +6129,7 @@
     </row>
     <row r="135" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="17">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E135" s="17"/>
       <c r="F135" s="17"/>
@@ -5569,7 +6141,7 @@
         <v/>
       </c>
       <c r="L135" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M135" s="17" t="str">
@@ -5583,7 +6155,7 @@
     </row>
     <row r="136" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="17">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I136" s="17"/>
       <c r="J136" s="17"/>
@@ -5592,7 +6164,7 @@
         <v/>
       </c>
       <c r="L136" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M136" s="17" t="str">
@@ -5606,7 +6178,7 @@
     </row>
     <row r="137" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="17">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I137" s="17"/>
       <c r="J137" s="17"/>
@@ -5615,7 +6187,7 @@
         <v/>
       </c>
       <c r="L137" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M137" s="17" t="str">
@@ -5629,11 +6201,8 @@
     </row>
     <row r="138" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="17">
-        <v>120</v>
-      </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
+        <v>122</v>
+      </c>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
       <c r="K138" t="str">
@@ -5641,7 +6210,7 @@
         <v/>
       </c>
       <c r="L138" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M138" s="17" t="str">
@@ -5655,7 +6224,7 @@
     </row>
     <row r="139" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="17">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I139" s="17"/>
       <c r="J139" s="17"/>
@@ -5664,7 +6233,7 @@
         <v/>
       </c>
       <c r="L139" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M139" s="17" t="str">
@@ -5678,7 +6247,7 @@
     </row>
     <row r="140" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="17">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
@@ -5687,7 +6256,7 @@
         <v/>
       </c>
       <c r="L140" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M140" s="17" t="str">
@@ -5701,7 +6270,7 @@
     </row>
     <row r="141" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="17">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
@@ -5710,7 +6279,7 @@
         <v/>
       </c>
       <c r="L141" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M141" s="17" t="str">
@@ -5724,16 +6293,14 @@
     </row>
     <row r="142" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="17">
-        <v>124</v>
-      </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
+        <v>126</v>
+      </c>
       <c r="K142" t="str">
         <f>IF(ISBLANK(C142),"", """"&amp;A142&amp;""" [texlbl="""&amp;A142&amp;". "&amp;B142&amp;" "&amp;C142&amp;" "&amp;D142&amp;" "&amp;F142&amp;" "&amp;G142&amp;" "&amp;H142&amp;""",color="""&amp;_xlfn.XLOOKUP(J142,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L142" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M142" s="17" t="str">
@@ -5747,7 +6314,7 @@
     </row>
     <row r="143" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="17">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="17"/>
@@ -5756,7 +6323,7 @@
         <v/>
       </c>
       <c r="L143" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M143" s="17" t="str">
@@ -5770,7 +6337,7 @@
     </row>
     <row r="144" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="17">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I144" s="17"/>
       <c r="J144" s="17"/>
@@ -5779,7 +6346,7 @@
         <v/>
       </c>
       <c r="L144" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M144" s="17" t="str">
@@ -5793,14 +6360,16 @@
     </row>
     <row r="145" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="17">
-        <v>127</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
       <c r="K145" t="str">
         <f>IF(ISBLANK(C145),"", """"&amp;A145&amp;""" [texlbl="""&amp;A145&amp;". "&amp;B145&amp;" "&amp;C145&amp;" "&amp;D145&amp;" "&amp;F145&amp;" "&amp;G145&amp;" "&amp;H145&amp;""",color="""&amp;_xlfn.XLOOKUP(J145,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L145" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M145" s="17" t="str">
@@ -5814,7 +6383,7 @@
     </row>
     <row r="146" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="17">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="17"/>
@@ -5823,7 +6392,7 @@
         <v/>
       </c>
       <c r="L146" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M146" s="17" t="str">
@@ -5837,7 +6406,7 @@
     </row>
     <row r="147" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="17">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
@@ -5846,7 +6415,7 @@
         <v/>
       </c>
       <c r="L147" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M147" s="17" t="str">
@@ -5860,7 +6429,7 @@
     </row>
     <row r="148" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="17">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
@@ -5869,7 +6438,7 @@
         <v/>
       </c>
       <c r="L148" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M148" s="17" t="str">
@@ -5883,7 +6452,7 @@
     </row>
     <row r="149" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="17">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="17"/>
@@ -5892,7 +6461,7 @@
         <v/>
       </c>
       <c r="L149" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M149" s="17" t="str">
@@ -5906,7 +6475,7 @@
     </row>
     <row r="150" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="17">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="17"/>
@@ -5915,7 +6484,7 @@
         <v/>
       </c>
       <c r="L150" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M150" s="17" t="str">
@@ -5929,7 +6498,7 @@
     </row>
     <row r="151" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="17">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="17"/>
@@ -5938,7 +6507,7 @@
         <v/>
       </c>
       <c r="L151" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M151" s="17" t="str">
@@ -5952,7 +6521,7 @@
     </row>
     <row r="152" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="17">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
@@ -5961,7 +6530,7 @@
         <v/>
       </c>
       <c r="L152" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M152" s="17" t="str">
@@ -5975,7 +6544,7 @@
     </row>
     <row r="153" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="17">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
@@ -5984,7 +6553,7 @@
         <v/>
       </c>
       <c r="L153" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M153" s="17" t="str">
@@ -5998,7 +6567,7 @@
     </row>
     <row r="154" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="17">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
@@ -6007,7 +6576,7 @@
         <v/>
       </c>
       <c r="L154" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M154" s="17" t="str">
@@ -6021,16 +6590,14 @@
     </row>
     <row r="155" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="17">
-        <v>137</v>
-      </c>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
+        <v>139</v>
+      </c>
       <c r="K155" t="str">
         <f>IF(ISBLANK(C155),"", """"&amp;A155&amp;""" [texlbl="""&amp;A155&amp;". "&amp;B155&amp;" "&amp;C155&amp;" "&amp;D155&amp;" "&amp;F155&amp;" "&amp;G155&amp;" "&amp;H155&amp;""",color="""&amp;_xlfn.XLOOKUP(J155,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L155" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L155:L183" si="13">IF(OR(ISBLANK(A155),ISBLANK(I155)),"", """"&amp;I155&amp;""" -&gt; """&amp;A155&amp;"""")</f>
         <v/>
       </c>
       <c r="M155" s="17" t="str">
@@ -6044,7 +6611,7 @@
     </row>
     <row r="156" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="17">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="17"/>
@@ -6053,7 +6620,7 @@
         <v/>
       </c>
       <c r="L156" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M156" s="17" t="str">
@@ -6067,7 +6634,7 @@
     </row>
     <row r="157" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="17">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I157" s="17"/>
       <c r="J157" s="17"/>
@@ -6076,7 +6643,7 @@
         <v/>
       </c>
       <c r="L157" s="17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M157" s="17" t="str">
@@ -6090,14 +6657,16 @@
     </row>
     <row r="158" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="17">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I158" s="17"/>
+      <c r="J158" s="17"/>
       <c r="K158" t="str">
         <f>IF(ISBLANK(C158),"", """"&amp;A158&amp;""" [texlbl="""&amp;A158&amp;". "&amp;B158&amp;" "&amp;C158&amp;" "&amp;D158&amp;" "&amp;F158&amp;" "&amp;G158&amp;" "&amp;H158&amp;""",color="""&amp;_xlfn.XLOOKUP(J158,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L158" s="17" t="str">
-        <f t="shared" ref="L158:L186" si="12">IF(OR(ISBLANK(A158),ISBLANK(I158)),"", """"&amp;I158&amp;""" -&gt; """&amp;A158&amp;"""")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M158" s="17" t="str">
@@ -6111,16 +6680,14 @@
     </row>
     <row r="159" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="17">
-        <v>141</v>
-      </c>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
+        <v>143</v>
+      </c>
       <c r="K159" t="str">
         <f>IF(ISBLANK(C159),"", """"&amp;A159&amp;""" [texlbl="""&amp;A159&amp;". "&amp;B159&amp;" "&amp;C159&amp;" "&amp;D159&amp;" "&amp;F159&amp;" "&amp;G159&amp;" "&amp;H159&amp;""",color="""&amp;_xlfn.XLOOKUP(J159,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L159" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M159" s="17" t="str">
@@ -6134,7 +6701,7 @@
     </row>
     <row r="160" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="17">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I160" s="17"/>
       <c r="J160" s="17"/>
@@ -6143,7 +6710,7 @@
         <v/>
       </c>
       <c r="L160" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M160" s="17" t="str">
@@ -6155,9 +6722,9 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="17">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="17"/>
@@ -6166,7 +6733,7 @@
         <v/>
       </c>
       <c r="L161" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M161" s="17" t="str">
@@ -6178,16 +6745,18 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="17">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
       <c r="K162" t="str">
         <f>IF(ISBLANK(C162),"", """"&amp;A162&amp;""" [texlbl="""&amp;A162&amp;". "&amp;B162&amp;" "&amp;C162&amp;" "&amp;D162&amp;" "&amp;F162&amp;" "&amp;G162&amp;" "&amp;H162&amp;""",color="""&amp;_xlfn.XLOOKUP(J162,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L162" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M162" s="17" t="str">
@@ -6199,18 +6768,16 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="17">
-        <v>145</v>
-      </c>
-      <c r="I163" s="17"/>
-      <c r="J163" s="17"/>
+        <v>147</v>
+      </c>
       <c r="K163" t="str">
         <f>IF(ISBLANK(C163),"", """"&amp;A163&amp;""" [texlbl="""&amp;A163&amp;". "&amp;B163&amp;" "&amp;C163&amp;" "&amp;D163&amp;" "&amp;F163&amp;" "&amp;G163&amp;" "&amp;H163&amp;""",color="""&amp;_xlfn.XLOOKUP(J163,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L163" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M163" s="17" t="str">
@@ -6222,18 +6789,16 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="17">
-        <v>146</v>
-      </c>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
+        <v>148</v>
+      </c>
       <c r="K164" t="str">
         <f>IF(ISBLANK(C164),"", """"&amp;A164&amp;""" [texlbl="""&amp;A164&amp;". "&amp;B164&amp;" "&amp;C164&amp;" "&amp;D164&amp;" "&amp;F164&amp;" "&amp;G164&amp;" "&amp;H164&amp;""",color="""&amp;_xlfn.XLOOKUP(J164,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L164" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M164" s="17" t="str">
@@ -6245,9 +6810,9 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="17">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I165" s="17"/>
       <c r="J165" s="17"/>
@@ -6256,7 +6821,7 @@
         <v/>
       </c>
       <c r="L165" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M165" s="17" t="str">
@@ -6268,16 +6833,18 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="17">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I166" s="17"/>
+      <c r="J166" s="17"/>
       <c r="K166" t="str">
         <f>IF(ISBLANK(C166),"", """"&amp;A166&amp;""" [texlbl="""&amp;A166&amp;". "&amp;B166&amp;" "&amp;C166&amp;" "&amp;D166&amp;" "&amp;F166&amp;" "&amp;G166&amp;" "&amp;H166&amp;""",color="""&amp;_xlfn.XLOOKUP(J166,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L166" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M166" s="17" t="str">
@@ -6289,16 +6856,16 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="17">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K167" t="str">
         <f>IF(ISBLANK(C167),"", """"&amp;A167&amp;""" [texlbl="""&amp;A167&amp;". "&amp;B167&amp;" "&amp;C167&amp;" "&amp;D167&amp;" "&amp;F167&amp;" "&amp;G167&amp;" "&amp;H167&amp;""",color="""&amp;_xlfn.XLOOKUP(J167,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L167" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M167" s="17" t="str">
@@ -6310,18 +6877,16 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="17">
-        <v>150</v>
-      </c>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
+        <v>152</v>
+      </c>
       <c r="K168" t="str">
         <f>IF(ISBLANK(C168),"", """"&amp;A168&amp;""" [texlbl="""&amp;A168&amp;". "&amp;B168&amp;" "&amp;C168&amp;" "&amp;D168&amp;" "&amp;F168&amp;" "&amp;G168&amp;" "&amp;H168&amp;""",color="""&amp;_xlfn.XLOOKUP(J168,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L168" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M168" s="17" t="str">
@@ -6333,18 +6898,16 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="17">
-        <v>151</v>
-      </c>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
+        <v>153</v>
+      </c>
       <c r="K169" t="str">
         <f>IF(ISBLANK(C169),"", """"&amp;A169&amp;""" [texlbl="""&amp;A169&amp;". "&amp;B169&amp;" "&amp;C169&amp;" "&amp;D169&amp;" "&amp;F169&amp;" "&amp;G169&amp;" "&amp;H169&amp;""",color="""&amp;_xlfn.XLOOKUP(J169,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L169" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M169" s="17" t="str">
@@ -6355,18 +6918,17 @@
         <f>IF(ISBLANK(N169),"",_xlfn.XLOOKUP(N169,'User stories'!A:A,'User stories'!B:B))</f>
         <v/>
       </c>
-      <c r="P169" s="17"/>
-    </row>
-    <row r="170" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="17">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K170" t="str">
         <f>IF(ISBLANK(C170),"", """"&amp;A170&amp;""" [texlbl="""&amp;A170&amp;". "&amp;B170&amp;" "&amp;C170&amp;" "&amp;D170&amp;" "&amp;F170&amp;" "&amp;G170&amp;" "&amp;H170&amp;""",color="""&amp;_xlfn.XLOOKUP(J170,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L170" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M170" s="17" t="str">
@@ -6378,16 +6940,16 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="17">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K171" t="str">
         <f>IF(ISBLANK(C171),"", """"&amp;A171&amp;""" [texlbl="""&amp;A171&amp;". "&amp;B171&amp;" "&amp;C171&amp;" "&amp;D171&amp;" "&amp;F171&amp;" "&amp;G171&amp;" "&amp;H171&amp;""",color="""&amp;_xlfn.XLOOKUP(J171,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L171" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M171" s="17" t="str">
@@ -6399,16 +6961,16 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="17">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K172" t="str">
         <f>IF(ISBLANK(C172),"", """"&amp;A172&amp;""" [texlbl="""&amp;A172&amp;". "&amp;B172&amp;" "&amp;C172&amp;" "&amp;D172&amp;" "&amp;F172&amp;" "&amp;G172&amp;" "&amp;H172&amp;""",color="""&amp;_xlfn.XLOOKUP(J172,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L172" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M172" s="17" t="str">
@@ -6420,16 +6982,16 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="17">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K173" t="str">
         <f>IF(ISBLANK(C173),"", """"&amp;A173&amp;""" [texlbl="""&amp;A173&amp;". "&amp;B173&amp;" "&amp;C173&amp;" "&amp;D173&amp;" "&amp;F173&amp;" "&amp;G173&amp;" "&amp;H173&amp;""",color="""&amp;_xlfn.XLOOKUP(J173,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L173" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M173" s="17" t="str">
@@ -6441,16 +7003,16 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="17">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K174" t="str">
         <f>IF(ISBLANK(C174),"", """"&amp;A174&amp;""" [texlbl="""&amp;A174&amp;". "&amp;B174&amp;" "&amp;C174&amp;" "&amp;D174&amp;" "&amp;F174&amp;" "&amp;G174&amp;" "&amp;H174&amp;""",color="""&amp;_xlfn.XLOOKUP(J174,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L174" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M174" s="17" t="str">
@@ -6462,16 +7024,16 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="17">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K175" t="str">
         <f>IF(ISBLANK(C175),"", """"&amp;A175&amp;""" [texlbl="""&amp;A175&amp;". "&amp;B175&amp;" "&amp;C175&amp;" "&amp;D175&amp;" "&amp;F175&amp;" "&amp;G175&amp;" "&amp;H175&amp;""",color="""&amp;_xlfn.XLOOKUP(J175,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L175" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M175" s="17" t="str">
@@ -6483,16 +7045,16 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="17">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K176" t="str">
         <f>IF(ISBLANK(C176),"", """"&amp;A176&amp;""" [texlbl="""&amp;A176&amp;". "&amp;B176&amp;" "&amp;C176&amp;" "&amp;D176&amp;" "&amp;F176&amp;" "&amp;G176&amp;" "&amp;H176&amp;""",color="""&amp;_xlfn.XLOOKUP(J176,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L176" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M176" s="17" t="str">
@@ -6506,14 +7068,14 @@
     </row>
     <row r="177" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="17">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K177" t="str">
         <f>IF(ISBLANK(C177),"", """"&amp;A177&amp;""" [texlbl="""&amp;A177&amp;". "&amp;B177&amp;" "&amp;C177&amp;" "&amp;D177&amp;" "&amp;F177&amp;" "&amp;G177&amp;" "&amp;H177&amp;""",color="""&amp;_xlfn.XLOOKUP(J177,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L177" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M177" s="17" t="str">
@@ -6527,14 +7089,14 @@
     </row>
     <row r="178" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="17">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K178" t="str">
         <f>IF(ISBLANK(C178),"", """"&amp;A178&amp;""" [texlbl="""&amp;A178&amp;". "&amp;B178&amp;" "&amp;C178&amp;" "&amp;D178&amp;" "&amp;F178&amp;" "&amp;G178&amp;" "&amp;H178&amp;""",color="""&amp;_xlfn.XLOOKUP(J178,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L178" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M178" s="17" t="str">
@@ -6548,14 +7110,14 @@
     </row>
     <row r="179" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="17">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K179" t="str">
         <f>IF(ISBLANK(C179),"", """"&amp;A179&amp;""" [texlbl="""&amp;A179&amp;". "&amp;B179&amp;" "&amp;C179&amp;" "&amp;D179&amp;" "&amp;F179&amp;" "&amp;G179&amp;" "&amp;H179&amp;""",color="""&amp;_xlfn.XLOOKUP(J179,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L179" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M179" s="17" t="str">
@@ -6569,14 +7131,14 @@
     </row>
     <row r="180" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="17">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K180" t="str">
         <f>IF(ISBLANK(C180),"", """"&amp;A180&amp;""" [texlbl="""&amp;A180&amp;". "&amp;B180&amp;" "&amp;C180&amp;" "&amp;D180&amp;" "&amp;F180&amp;" "&amp;G180&amp;" "&amp;H180&amp;""",color="""&amp;_xlfn.XLOOKUP(J180,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L180" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M180" s="17" t="str">
@@ -6590,14 +7152,14 @@
     </row>
     <row r="181" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="17">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K181" t="str">
         <f>IF(ISBLANK(C181),"", """"&amp;A181&amp;""" [texlbl="""&amp;A181&amp;". "&amp;B181&amp;" "&amp;C181&amp;" "&amp;D181&amp;" "&amp;F181&amp;" "&amp;G181&amp;" "&amp;H181&amp;""",color="""&amp;_xlfn.XLOOKUP(J181,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L181" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M181" s="17" t="str">
@@ -6611,14 +7173,14 @@
     </row>
     <row r="182" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="17">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K182" t="str">
         <f>IF(ISBLANK(C182),"", """"&amp;A182&amp;""" [texlbl="""&amp;A182&amp;". "&amp;B182&amp;" "&amp;C182&amp;" "&amp;D182&amp;" "&amp;F182&amp;" "&amp;G182&amp;" "&amp;H182&amp;""",color="""&amp;_xlfn.XLOOKUP(J182,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L182" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M182" s="17" t="str">
@@ -6632,14 +7194,14 @@
     </row>
     <row r="183" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="17">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K183" t="str">
         <f>IF(ISBLANK(C183),"", """"&amp;A183&amp;""" [texlbl="""&amp;A183&amp;". "&amp;B183&amp;" "&amp;C183&amp;" "&amp;D183&amp;" "&amp;F183&amp;" "&amp;G183&amp;" "&amp;H183&amp;""",color="""&amp;_xlfn.XLOOKUP(J183,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
       <c r="L183" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M183" s="17" t="str">
@@ -6651,77 +7213,17 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="17">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K184" t="str">
         <f>IF(ISBLANK(C184),"", """"&amp;A184&amp;""" [texlbl="""&amp;A184&amp;". "&amp;B184&amp;" "&amp;C184&amp;" "&amp;D184&amp;" "&amp;F184&amp;" "&amp;G184&amp;" "&amp;H184&amp;""",color="""&amp;_xlfn.XLOOKUP(J184,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
         <v/>
       </c>
-      <c r="L184" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M184" s="17" t="str">
-        <f>IF(ISBLANK(A184),"",_xlfn.IFNA( _xlfn.XLOOKUP(A184,'User stories'!E:E,'User stories'!A:A), ""))</f>
-        <v/>
-      </c>
-      <c r="O184" s="17" t="str">
-        <f>IF(ISBLANK(N184),"",_xlfn.XLOOKUP(N184,'User stories'!A:A,'User stories'!B:B))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A185" s="17">
-        <v>167</v>
-      </c>
-      <c r="K185" t="str">
-        <f>IF(ISBLANK(C185),"", """"&amp;A185&amp;""" [texlbl="""&amp;A185&amp;". "&amp;B185&amp;" "&amp;C185&amp;" "&amp;D185&amp;" "&amp;F185&amp;" "&amp;G185&amp;" "&amp;H185&amp;""",color="""&amp;_xlfn.XLOOKUP(J185,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
-      </c>
-      <c r="L185" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M185" s="17" t="str">
-        <f>IF(ISBLANK(A185),"",_xlfn.IFNA( _xlfn.XLOOKUP(A185,'User stories'!E:E,'User stories'!A:A), ""))</f>
-        <v/>
-      </c>
-      <c r="O185" s="17" t="str">
-        <f>IF(ISBLANK(N185),"",_xlfn.XLOOKUP(N185,'User stories'!A:A,'User stories'!B:B))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A186" s="17">
-        <v>168</v>
-      </c>
-      <c r="K186" t="str">
-        <f>IF(ISBLANK(C186),"", """"&amp;A186&amp;""" [texlbl="""&amp;A186&amp;". "&amp;B186&amp;" "&amp;C186&amp;" "&amp;D186&amp;" "&amp;F186&amp;" "&amp;G186&amp;" "&amp;H186&amp;""",color="""&amp;_xlfn.XLOOKUP(J186,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
-      </c>
-      <c r="L186" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M186" s="17" t="str">
-        <f>IF(ISBLANK(A186),"",_xlfn.IFNA( _xlfn.XLOOKUP(A186,'User stories'!E:E,'User stories'!A:A), ""))</f>
-        <v/>
-      </c>
-      <c r="O186" s="17" t="str">
-        <f>IF(ISBLANK(N186),"",_xlfn.XLOOKUP(N186,'User stories'!A:A,'User stories'!B:B))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="K187" t="str">
-        <f>IF(ISBLANK(C187),"", """"&amp;A187&amp;""" [texlbl="""&amp;A187&amp;". "&amp;B187&amp;" "&amp;C187&amp;" "&amp;D187&amp;" "&amp;F187&amp;" "&amp;G187&amp;" "&amp;H187&amp;""",color="""&amp;_xlfn.XLOOKUP(J187,Hulpfunctie!A:A,Hulpfunctie!B:B,"")&amp;"""]")</f>
-        <v/>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L84" xr:uid="{CF68E8D2-8D5D-8743-B2B1-28EDA75A950C}"/>
+  <autoFilter ref="A3:L81" xr:uid="{CF68E8D2-8D5D-8743-B2B1-28EDA75A950C}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6729,10 +7231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1858B-C046-AD4F-B62F-47A93006E5BC}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6742,18 +7244,18 @@
   <sheetData>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
@@ -6761,15 +7263,23 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6778,6 +7288,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC106B2E1567C146BF558BC6C664D157" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="85f9d543cc5de373041b453023ab91d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c08923b1-6af8-4f77-a5db-16ecbd5181e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7885031b1cc716dd168488c9c995a7" ns2:_="">
     <xsd:import namespace="c08923b1-6af8-4f77-a5db-16ecbd5181e9"/>
@@ -6955,22 +7480,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC0A4F9-B95C-40FE-BAB8-CBD4270505F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c08923b1-6af8-4f77-a5db-16ecbd5181e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF506583-F1C8-4A29-91B7-99FAB4D11467}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0914B8D6-53BB-44F2-9FF0-6356FA514EFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6986,28 +7520,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF506583-F1C8-4A29-91B7-99FAB4D11467}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BC0A4F9-B95C-40FE-BAB8-CBD4270505F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c08923b1-6af8-4f77-a5db-16ecbd5181e9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>